--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15147983-A425-494C-A2CA-79B1D5D258E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AA9F3-609A-412E-80D8-DE886129FA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>TestCase</t>
   </si>
@@ -167,15 +167,6 @@
     <t>$Registered_Password</t>
   </si>
   <si>
-    <t>Uname1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>LoginButton1</t>
-  </si>
-  <si>
     <t>Logout_RegisteredUser</t>
   </si>
   <si>
@@ -186,6 +177,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -601,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -613,7 +610,7 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -655,24 +652,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
@@ -680,51 +675,51 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
@@ -732,42 +727,42 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
@@ -775,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -790,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -805,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -820,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -835,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -850,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -865,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -880,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -895,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -910,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -925,27 +920,42 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1170,10 +1180,10 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1186,6 +1196,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1382,15 +1401,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1398,6 +1408,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1416,14 +1434,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AA9F3-609A-412E-80D8-DE886129FA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FC8CA-1FD5-42A0-8380-26077EE05287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC02_Verify_MYACC_RegisteredUse" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>TestCase</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>LoginButton</t>
+  </si>
+  <si>
+    <t>PurchasingHistory</t>
+  </si>
+  <si>
+    <t>QuickOrderMyacc</t>
+  </si>
+  <si>
+    <t>Storerooms</t>
+  </si>
+  <si>
+    <t>Purchasing History</t>
   </si>
 </sst>
 </file>
@@ -600,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -860,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>51</v>
@@ -875,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>51</v>
@@ -890,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>51</v>
@@ -968,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1087,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1103,7 +1115,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1196,12 +1208,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,15 +1411,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1435,10 +1448,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FC8CA-1FD5-42A0-8380-26077EE05287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BEAAA4-650E-4ABC-9524-89A55AAF2807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC02_Verify_MYACC_RegisteredUse" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>TestCase</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Quick order</t>
   </si>
   <si>
-    <t>Storeroooms</t>
-  </si>
-  <si>
     <t>Accounts</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>Log out</t>
-  </si>
-  <si>
     <t>GearingPLPHeader</t>
   </si>
   <si>
@@ -188,13 +182,28 @@
     <t>PurchasingHistory</t>
   </si>
   <si>
-    <t>QuickOrderMyacc</t>
-  </si>
-  <si>
     <t>Storerooms</t>
   </si>
   <si>
-    <t>Purchasing History</t>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>MOUSEOVER</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>MyaccountSecRegisteredUser</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
+  </si>
+  <si>
+    <t>Link_acc</t>
   </si>
 </sst>
 </file>
@@ -610,17 +619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -644,7 +653,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -657,14 +666,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -674,10 +683,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -690,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -705,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -717,17 +726,17 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -742,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -754,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -769,10 +778,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -785,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -800,7 +809,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -815,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -830,7 +839,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
@@ -845,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -860,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
@@ -872,10 +881,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>25</v>
@@ -887,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -902,10 +911,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
@@ -917,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -932,42 +941,27 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>48</v>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -978,10 +972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1003,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1011,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1019,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1051,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1059,7 +1053,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1067,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1099,7 +1093,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1112,39 +1106,39 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>1</v>
@@ -1152,15 +1146,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1168,7 +1162,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1176,7 +1170,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1184,7 +1178,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1192,10 +1186,26 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1208,12 +1218,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1410,6 +1414,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1420,15 +1430,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1447,6 +1448,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
